--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Psen1-Notch1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Psen1-Notch1.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H2">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I2">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J2">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N2">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P2">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q2">
-        <v>1122.52305028591</v>
+        <v>900.969161476098</v>
       </c>
       <c r="R2">
-        <v>10102.70745257319</v>
+        <v>8108.722453284882</v>
       </c>
       <c r="S2">
-        <v>0.1356953539668783</v>
+        <v>0.08838192988528948</v>
       </c>
       <c r="T2">
-        <v>0.1356953539668783</v>
+        <v>0.08838192988528948</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H3">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I3">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J3">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>26.97459</v>
       </c>
       <c r="O3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P3">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q3">
-        <v>148.42200781957</v>
+        <v>137.40645744198</v>
       </c>
       <c r="R3">
-        <v>1335.79807037613</v>
+        <v>1236.65811697782</v>
       </c>
       <c r="S3">
-        <v>0.01794188269222763</v>
+        <v>0.01347909385436303</v>
       </c>
       <c r="T3">
-        <v>0.01794188269222763</v>
+        <v>0.01347909385436303</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H4">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I4">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J4">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N4">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P4">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q4">
-        <v>342.7632695088029</v>
+        <v>649.7290277630759</v>
       </c>
       <c r="R4">
-        <v>3084.869425579227</v>
+        <v>5847.561249867684</v>
       </c>
       <c r="S4">
-        <v>0.04143467982327394</v>
+        <v>0.06373614972804693</v>
       </c>
       <c r="T4">
-        <v>0.04143467982327395</v>
+        <v>0.06373614972804695</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,16 +723,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>16.506869</v>
+        <v>15.281766</v>
       </c>
       <c r="H5">
-        <v>49.520607</v>
+        <v>45.845298</v>
       </c>
       <c r="I5">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="J5">
-        <v>0.2165594803671733</v>
+        <v>0.1817381432449346</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -741,28 +741,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N5">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O5">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P5">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q5">
-        <v>177.7532174097807</v>
+        <v>164.541734090682</v>
       </c>
       <c r="R5">
-        <v>1599.778956688026</v>
+        <v>1480.875606816138</v>
       </c>
       <c r="S5">
-        <v>0.02148756388479341</v>
+        <v>0.01614096977723516</v>
       </c>
       <c r="T5">
-        <v>0.02148756388479341</v>
+        <v>0.01614096977723516</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -791,10 +791,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I6">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J6">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N6">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P6">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q6">
-        <v>1685.22682532568</v>
+        <v>1461.046981530136</v>
       </c>
       <c r="R6">
-        <v>15167.04142793112</v>
+        <v>13149.42283377122</v>
       </c>
       <c r="S6">
-        <v>0.2037173762434561</v>
+        <v>0.1433236090668749</v>
       </c>
       <c r="T6">
-        <v>0.2037173762434561</v>
+        <v>0.1433236090668749</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -853,10 +853,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I7">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J7">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>26.97459</v>
       </c>
       <c r="O7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P7">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q7">
         <v>222.82370859336</v>
@@ -883,10 +883,10 @@
         <v>2005.41337734024</v>
       </c>
       <c r="S7">
-        <v>0.02693587628520171</v>
+        <v>0.02185822804125019</v>
       </c>
       <c r="T7">
-        <v>0.02693587628520171</v>
+        <v>0.02185822804125019</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -915,10 +915,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I8">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J8">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N8">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P8">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q8">
-        <v>514.585296369144</v>
+        <v>1053.626112208432</v>
       </c>
       <c r="R8">
-        <v>4631.267667322296</v>
+        <v>9482.635009875888</v>
       </c>
       <c r="S8">
-        <v>0.06220525620313709</v>
+        <v>0.1033570438992059</v>
       </c>
       <c r="T8">
-        <v>0.0622052562031371</v>
+        <v>0.1033570438992059</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -977,10 +977,10 @@
         <v>74.34453600000001</v>
       </c>
       <c r="I9">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="J9">
-        <v>0.3251174623990092</v>
+        <v>0.2947137116012682</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,28 +989,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N9">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O9">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P9">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q9">
-        <v>266.858208560272</v>
+        <v>266.827339056824</v>
       </c>
       <c r="R9">
-        <v>2401.723877042448</v>
+        <v>2401.446051511416</v>
       </c>
       <c r="S9">
-        <v>0.03225895366721421</v>
+        <v>0.02617483059393727</v>
       </c>
       <c r="T9">
-        <v>0.03225895366721422</v>
+        <v>0.02617483059393728</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H10">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I10">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J10">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N10">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P10">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q10">
-        <v>697.4044819314302</v>
+        <v>1083.115524420978</v>
       </c>
       <c r="R10">
-        <v>6276.640337382871</v>
+        <v>9748.0397197888</v>
       </c>
       <c r="S10">
-        <v>0.08430521583469407</v>
+        <v>0.1062498523037217</v>
       </c>
       <c r="T10">
-        <v>0.08430521583469407</v>
+        <v>0.1062498523037217</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H11">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I11">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J11">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>26.97459</v>
       </c>
       <c r="O11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P11">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q11">
-        <v>92.21206944860999</v>
+        <v>165.18552862261</v>
       </c>
       <c r="R11">
-        <v>829.90862503749</v>
+        <v>1486.66975760349</v>
       </c>
       <c r="S11">
-        <v>0.01114698660366971</v>
+        <v>0.01620412377363629</v>
       </c>
       <c r="T11">
-        <v>0.01114698660366971</v>
+        <v>0.01620412377363629</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H12">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I12">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J12">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N12">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P12">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q12">
-        <v>212.952990440619</v>
+        <v>781.0828902114487</v>
       </c>
       <c r="R12">
-        <v>1916.576913965571</v>
+        <v>7029.746011903038</v>
       </c>
       <c r="S12">
-        <v>0.02574266195138261</v>
+        <v>0.07662150514027213</v>
       </c>
       <c r="T12">
-        <v>0.02574266195138261</v>
+        <v>0.07662150514027215</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,16 +1219,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>10.255437</v>
+        <v>18.371237</v>
       </c>
       <c r="H13">
-        <v>30.766311</v>
+        <v>55.113711</v>
       </c>
       <c r="I13">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="J13">
-        <v>0.1345447224218162</v>
+        <v>0.2184796247693259</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1237,28 +1237,28 @@
         <v>1</v>
       </c>
       <c r="M13">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N13">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O13">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P13">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q13">
-        <v>110.435051171322</v>
+        <v>197.8066666752323</v>
       </c>
       <c r="R13">
-        <v>993.915460541898</v>
+        <v>1780.260000077091</v>
       </c>
       <c r="S13">
-        <v>0.01334985803206981</v>
+        <v>0.01940414355169581</v>
       </c>
       <c r="T13">
-        <v>0.01334985803206981</v>
+        <v>0.01940414355169582</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1281,16 +1281,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H14">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I14">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J14">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>68.00339000000001</v>
+        <v>58.95713633333333</v>
       </c>
       <c r="N14">
-        <v>204.01017</v>
+        <v>176.871409</v>
       </c>
       <c r="O14">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083892</v>
       </c>
       <c r="P14">
-        <v>0.6265962299909886</v>
+        <v>0.4863146960083893</v>
       </c>
       <c r="Q14">
-        <v>1678.285537966007</v>
+        <v>1512.381078049842</v>
       </c>
       <c r="R14">
-        <v>15104.56984169406</v>
+        <v>13611.42970244858</v>
       </c>
       <c r="S14">
-        <v>0.2028782839459601</v>
+        <v>0.1483593047525032</v>
       </c>
       <c r="T14">
-        <v>0.2028782839459601</v>
+        <v>0.1483593047525032</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1343,16 +1343,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H15">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I15">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J15">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>26.97459</v>
       </c>
       <c r="O15">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679004</v>
       </c>
       <c r="P15">
-        <v>0.08284967558015671</v>
+        <v>0.07416766570679005</v>
       </c>
       <c r="Q15">
-        <v>221.9059191488467</v>
+        <v>230.65265174742</v>
       </c>
       <c r="R15">
-        <v>1997.15327233962</v>
+        <v>2075.87386572678</v>
       </c>
       <c r="S15">
-        <v>0.02682492999905767</v>
+        <v>0.02262622003754052</v>
       </c>
       <c r="T15">
-        <v>0.02682492999905767</v>
+        <v>0.02262622003754052</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1405,16 +1405,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H16">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I16">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J16">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>20.764887</v>
+        <v>42.51661933333333</v>
       </c>
       <c r="N16">
-        <v>62.294661</v>
+        <v>127.549858</v>
       </c>
       <c r="O16">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="P16">
-        <v>0.1913316367079478</v>
+        <v>0.3507032073181665</v>
       </c>
       <c r="Q16">
-        <v>512.4657689800219</v>
+        <v>1090.645417695204</v>
       </c>
       <c r="R16">
-        <v>4612.191920820198</v>
+        <v>9815.808759256837</v>
       </c>
       <c r="S16">
-        <v>0.06194903873015411</v>
+        <v>0.1069885085506415</v>
       </c>
       <c r="T16">
-        <v>0.06194903873015412</v>
+        <v>0.1069885085506415</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1467,16 +1467,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>24.67943933333333</v>
+        <v>25.652214</v>
       </c>
       <c r="H17">
-        <v>74.038318</v>
+        <v>76.956642</v>
       </c>
       <c r="I17">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="J17">
-        <v>0.3237783348120013</v>
+        <v>0.3050685203844711</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1485,28 +1485,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>10.76843933333333</v>
+        <v>10.76719366666667</v>
       </c>
       <c r="N17">
-        <v>32.305318</v>
+        <v>32.301581</v>
       </c>
       <c r="O17">
-        <v>0.09922245772090686</v>
+        <v>0.0888144309666542</v>
       </c>
       <c r="P17">
-        <v>0.09922245772090688</v>
+        <v>0.08881443096665421</v>
       </c>
       <c r="Q17">
-        <v>265.7590452416804</v>
+        <v>276.202356116778</v>
       </c>
       <c r="R17">
-        <v>2391.831407175124</v>
+        <v>2485.821205051002</v>
       </c>
       <c r="S17">
-        <v>0.03212608213682942</v>
+        <v>0.02709448704378595</v>
       </c>
       <c r="T17">
-        <v>0.03212608213682943</v>
+        <v>0.02709448704378595</v>
       </c>
     </row>
   </sheetData>
